--- a/тест.xlsx
+++ b/тест.xlsx
@@ -338,7 +338,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -386,6 +386,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="5">
@@ -636,7 +642,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -722,6 +728,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1028,7 +1035,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1086,9 +1095,15 @@
       <c r="B5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
+      <c r="C5" s="33">
+        <v>1</v>
+      </c>
+      <c r="D5" s="34">
+        <v>2</v>
+      </c>
+      <c r="E5" s="34">
+        <v>3</v>
+      </c>
       <c r="F5" s="34"/>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1136,7 +1151,9 @@
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
+      <c r="E9" s="46">
+        <v>3</v>
+      </c>
       <c r="F9" s="36"/>
     </row>
     <row r="10" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
